--- a/biology/Médecine/Cytomégalovirus,_journal_d'hospitalisation/Cytomégalovirus,_journal_d'hospitalisation.xlsx
+++ b/biology/Médecine/Cytomégalovirus,_journal_d'hospitalisation/Cytomégalovirus,_journal_d'hospitalisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9galovirus,_journal_d%27hospitalisation</t>
+          <t>Cytomégalovirus,_journal_d'hospitalisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cytomégalovirus, journal d’hospitalisation est une œuvre d’Hervé Guibert publiée à titre posthume en 1992 aux Éditions du Seuil. Du 17 septembre au 8 octobre 1991, l’auteur, atteint du sida, est hospitalisé. Il risque de perdre la vue à la suite d'une infection au cytomégalovirus. Il rédige ce journal quelques mois avant de mourir, le 27 décembre 1991.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9galovirus,_journal_d%27hospitalisation</t>
+          <t>Cytomégalovirus,_journal_d'hospitalisation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’un texte court, chargé à la fois d’émotion et de cruauté. L’univers hospitalier y est décrit sans complaisance. Au travers des exigences formulées auprès du personnel soignant, se devine la volonté de l’auteur de mourir dignement. Ses amis l’entourent et le préparent à la mort : dernières volontés, enterrement, séparation des êtres aimés. Hervé Guibert évoque aussi son travail d’écriture et photographique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9galovirus,_journal_d%27hospitalisation</t>
+          <t>Cytomégalovirus,_journal_d'hospitalisation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Ce matin, j’ai essayé de chercher dans le ciel voilé des aquarelles de Turner ou de Constable. Il y en avait parfois. »
